--- a/testsystem/download/STU-question_bank_template.xlsx
+++ b/testsystem/download/STU-question_bank_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zw151\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PycharmProjects\OnlineTest-master\testsystem\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E4B1C9-CB2E-4741-8F49-E1BED40F4D10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6710C2B-1D79-4717-A855-31C4A93A958E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="问题导入" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>正确答案</t>
   </si>
@@ -43,65 +43,10 @@
     <t>单选题</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>多选题</t>
   </si>
   <si>
-    <t>1+1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>明天吃什么</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ABC</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛肉饭</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>油条</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>豆浆</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>today is a ___ day</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>填空题</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>funny</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>油泼拉面</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -248,6 +193,36 @@
       <t>，超过请分批次上传。</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单选题题干</t>
+  </si>
+  <si>
+    <t>多选题题干</t>
+  </si>
+  <si>
+    <t>填空题题干</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>填空题答案</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -472,8 +447,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -495,10 +470,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -516,7 +491,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -528,7 +503,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -1719,21 +1694,21 @@
   <dimension ref="A1:IV302"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.19921875" style="1" customWidth="1"/>
-    <col min="2" max="5" width="18.796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.09765625" style="1" customWidth="1"/>
-    <col min="7" max="16" width="18.796875" style="1" customWidth="1"/>
-    <col min="17" max="256" width="10.796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="57.1640625" style="1" customWidth="1"/>
+    <col min="2" max="5" width="18.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.08203125" style="1" customWidth="1"/>
+    <col min="7" max="16" width="18.83203125" style="1" customWidth="1"/>
+    <col min="17" max="256" width="10.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="241.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="241" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -1751,12 +1726,12 @@
       <c r="O1" s="18"/>
       <c r="P1" s="18"/>
     </row>
-    <row r="2" spans="1:16" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="23" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -1777,10 +1752,10 @@
         <v>5</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="K2" s="15"/>
       <c r="L2" s="3"/>
@@ -1789,30 +1764,30 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D3" s="6">
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
@@ -1823,30 +1798,30 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="6">
         <v>20</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -1857,15 +1832,15 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="1:16" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="38" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" s="6">
         <v>10</v>
@@ -1883,7 +1858,7 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
     </row>
-    <row r="6" spans="1:16" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="23.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="7"/>
@@ -1901,7 +1876,7 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="7"/>
@@ -1919,7 +1894,7 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="7"/>
@@ -1937,7 +1912,7 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="7"/>
@@ -1955,7 +1930,7 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="7"/>
@@ -1973,7 +1948,7 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="7"/>
@@ -1991,7 +1966,7 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
     </row>
-    <row r="12" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="7"/>
@@ -2009,7 +1984,7 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
     </row>
-    <row r="13" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="7"/>
@@ -2027,7 +2002,7 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
     </row>
-    <row r="14" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="7"/>
@@ -2045,7 +2020,7 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
     </row>
-    <row r="15" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="7"/>
@@ -2063,7 +2038,7 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
     </row>
-    <row r="16" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="7"/>
@@ -2081,7 +2056,7 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
     </row>
-    <row r="17" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="7"/>
@@ -2099,7 +2074,7 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
     </row>
-    <row r="18" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="7"/>
@@ -2117,7 +2092,7 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
     </row>
-    <row r="19" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="7"/>
@@ -2135,7 +2110,7 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
     </row>
-    <row r="20" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="7"/>
@@ -2153,7 +2128,7 @@
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
     </row>
-    <row r="21" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="7"/>
@@ -2171,7 +2146,7 @@
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
     </row>
-    <row r="22" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="7"/>
@@ -2189,7 +2164,7 @@
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
     </row>
-    <row r="23" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="7"/>
@@ -2207,7 +2182,7 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
     </row>
-    <row r="24" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="7"/>
@@ -2225,7 +2200,7 @@
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
     </row>
-    <row r="25" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="7"/>
@@ -2243,7 +2218,7 @@
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
     </row>
-    <row r="26" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="7"/>
@@ -2261,7 +2236,7 @@
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
     </row>
-    <row r="27" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="7"/>
@@ -2279,7 +2254,7 @@
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
     </row>
-    <row r="28" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="7"/>
@@ -2297,7 +2272,7 @@
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
     </row>
-    <row r="29" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
       <c r="C29" s="7"/>
@@ -2315,7 +2290,7 @@
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
     </row>
-    <row r="30" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
       <c r="C30" s="7"/>
@@ -2333,7 +2308,7 @@
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
     </row>
-    <row r="31" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="7"/>
       <c r="B31" s="8"/>
       <c r="C31" s="7"/>
@@ -2351,7 +2326,7 @@
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
     </row>
-    <row r="32" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
       <c r="C32" s="7"/>
@@ -2369,7 +2344,7 @@
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
     </row>
-    <row r="33" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="7"/>
@@ -2387,7 +2362,7 @@
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
     </row>
-    <row r="34" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
       <c r="C34" s="7"/>
@@ -2405,7 +2380,7 @@
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
     </row>
-    <row r="35" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="7"/>
@@ -2423,7 +2398,7 @@
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
     </row>
-    <row r="36" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="7"/>
       <c r="B36" s="8"/>
       <c r="C36" s="7"/>
@@ -2441,7 +2416,7 @@
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
     </row>
-    <row r="37" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="7"/>
       <c r="B37" s="8"/>
       <c r="C37" s="7"/>
@@ -2459,7 +2434,7 @@
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
     </row>
-    <row r="38" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="7"/>
       <c r="B38" s="8"/>
       <c r="C38" s="7"/>
@@ -2477,7 +2452,7 @@
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
     </row>
-    <row r="39" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="7"/>
       <c r="B39" s="8"/>
       <c r="C39" s="7"/>
@@ -2495,7 +2470,7 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
     </row>
-    <row r="40" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="7"/>
       <c r="B40" s="8"/>
       <c r="C40" s="7"/>
@@ -2513,7 +2488,7 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
     </row>
-    <row r="41" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="7"/>
       <c r="B41" s="8"/>
       <c r="C41" s="7"/>
@@ -2531,7 +2506,7 @@
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
     </row>
-    <row r="42" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="7"/>
       <c r="B42" s="8"/>
       <c r="C42" s="7"/>
@@ -2549,7 +2524,7 @@
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
     </row>
-    <row r="43" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="7"/>
       <c r="B43" s="8"/>
       <c r="C43" s="7"/>
@@ -2567,7 +2542,7 @@
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
     </row>
-    <row r="44" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="7"/>
       <c r="B44" s="8"/>
       <c r="C44" s="7"/>
@@ -2585,7 +2560,7 @@
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
     </row>
-    <row r="45" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
       <c r="C45" s="7"/>
@@ -2603,7 +2578,7 @@
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
     </row>
-    <row r="46" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="7"/>
       <c r="B46" s="8"/>
       <c r="C46" s="7"/>
@@ -2621,7 +2596,7 @@
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
     </row>
-    <row r="47" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="7"/>
       <c r="B47" s="8"/>
       <c r="C47" s="7"/>
@@ -2639,7 +2614,7 @@
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
     </row>
-    <row r="48" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="7"/>
       <c r="B48" s="8"/>
       <c r="C48" s="7"/>
@@ -2657,7 +2632,7 @@
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
     </row>
-    <row r="49" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="7"/>
       <c r="B49" s="8"/>
       <c r="C49" s="7"/>
@@ -2675,7 +2650,7 @@
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
     </row>
-    <row r="50" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="7"/>
       <c r="B50" s="8"/>
       <c r="C50" s="7"/>
@@ -2693,7 +2668,7 @@
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
     </row>
-    <row r="51" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="7"/>
       <c r="B51" s="8"/>
       <c r="C51" s="7"/>
@@ -2711,7 +2686,7 @@
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
     </row>
-    <row r="52" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="7"/>
       <c r="B52" s="8"/>
       <c r="C52" s="7"/>
@@ -2729,7 +2704,7 @@
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
     </row>
-    <row r="53" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="7"/>
       <c r="B53" s="8"/>
       <c r="C53" s="7"/>
@@ -2747,7 +2722,7 @@
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
     </row>
-    <row r="54" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="7"/>
       <c r="B54" s="8"/>
       <c r="C54" s="7"/>
@@ -2765,7 +2740,7 @@
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
     </row>
-    <row r="55" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="7"/>
       <c r="B55" s="8"/>
       <c r="C55" s="7"/>
@@ -2783,7 +2758,7 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
     </row>
-    <row r="56" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="7"/>
       <c r="B56" s="8"/>
       <c r="C56" s="7"/>
@@ -2801,7 +2776,7 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
     </row>
-    <row r="57" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="7"/>
       <c r="B57" s="8"/>
       <c r="C57" s="7"/>
@@ -2819,7 +2794,7 @@
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
     </row>
-    <row r="58" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="7"/>
       <c r="B58" s="8"/>
       <c r="C58" s="7"/>
@@ -2837,7 +2812,7 @@
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
     </row>
-    <row r="59" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="7"/>
       <c r="B59" s="8"/>
       <c r="C59" s="7"/>
@@ -2855,7 +2830,7 @@
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
     </row>
-    <row r="60" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="7"/>
       <c r="B60" s="8"/>
       <c r="C60" s="7"/>
@@ -2873,7 +2848,7 @@
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
     </row>
-    <row r="61" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="7"/>
       <c r="B61" s="8"/>
       <c r="C61" s="7"/>
@@ -2891,7 +2866,7 @@
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
     </row>
-    <row r="62" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="7"/>
       <c r="B62" s="8"/>
       <c r="C62" s="7"/>
@@ -2909,7 +2884,7 @@
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
     </row>
-    <row r="63" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="7"/>
       <c r="B63" s="8"/>
       <c r="C63" s="7"/>
@@ -2927,7 +2902,7 @@
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
     </row>
-    <row r="64" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="7"/>
       <c r="B64" s="8"/>
       <c r="C64" s="7"/>
@@ -2945,7 +2920,7 @@
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
     </row>
-    <row r="65" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="7"/>
       <c r="B65" s="8"/>
       <c r="C65" s="7"/>
@@ -2963,7 +2938,7 @@
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
     </row>
-    <row r="66" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="7"/>
       <c r="B66" s="8"/>
       <c r="C66" s="7"/>
@@ -2981,7 +2956,7 @@
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
     </row>
-    <row r="67" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="7"/>
       <c r="B67" s="8"/>
       <c r="C67" s="7"/>
@@ -2999,7 +2974,7 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
     </row>
-    <row r="68" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="7"/>
       <c r="B68" s="8"/>
       <c r="C68" s="7"/>
@@ -3017,7 +2992,7 @@
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
     </row>
-    <row r="69" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="7"/>
       <c r="B69" s="8"/>
       <c r="C69" s="7"/>
@@ -3035,7 +3010,7 @@
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
     </row>
-    <row r="70" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="7"/>
       <c r="B70" s="8"/>
       <c r="C70" s="7"/>
@@ -3053,7 +3028,7 @@
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
     </row>
-    <row r="71" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="7"/>
       <c r="B71" s="8"/>
       <c r="C71" s="7"/>
@@ -3071,7 +3046,7 @@
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
     </row>
-    <row r="72" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="7"/>
       <c r="B72" s="8"/>
       <c r="C72" s="7"/>
@@ -3089,7 +3064,7 @@
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
     </row>
-    <row r="73" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="7"/>
       <c r="B73" s="8"/>
       <c r="C73" s="7"/>
@@ -3107,7 +3082,7 @@
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
     </row>
-    <row r="74" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="7"/>
       <c r="B74" s="8"/>
       <c r="C74" s="7"/>
@@ -3125,7 +3100,7 @@
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
     </row>
-    <row r="75" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="7"/>
       <c r="B75" s="8"/>
       <c r="C75" s="7"/>
@@ -3143,7 +3118,7 @@
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
     </row>
-    <row r="76" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="7"/>
       <c r="B76" s="8"/>
       <c r="C76" s="7"/>
@@ -3161,7 +3136,7 @@
       <c r="O76" s="3"/>
       <c r="P76" s="3"/>
     </row>
-    <row r="77" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="7"/>
       <c r="B77" s="8"/>
       <c r="C77" s="7"/>
@@ -3179,7 +3154,7 @@
       <c r="O77" s="3"/>
       <c r="P77" s="3"/>
     </row>
-    <row r="78" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="7"/>
       <c r="B78" s="8"/>
       <c r="C78" s="7"/>
@@ -3197,7 +3172,7 @@
       <c r="O78" s="3"/>
       <c r="P78" s="3"/>
     </row>
-    <row r="79" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="7"/>
       <c r="B79" s="8"/>
       <c r="C79" s="7"/>
@@ -3215,7 +3190,7 @@
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
     </row>
-    <row r="80" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="7"/>
       <c r="B80" s="8"/>
       <c r="C80" s="7"/>
@@ -3233,7 +3208,7 @@
       <c r="O80" s="3"/>
       <c r="P80" s="3"/>
     </row>
-    <row r="81" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="7"/>
       <c r="B81" s="8"/>
       <c r="C81" s="7"/>
@@ -3251,7 +3226,7 @@
       <c r="O81" s="3"/>
       <c r="P81" s="3"/>
     </row>
-    <row r="82" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="7"/>
       <c r="B82" s="8"/>
       <c r="C82" s="7"/>
@@ -3269,7 +3244,7 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
     </row>
-    <row r="83" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="7"/>
       <c r="B83" s="8"/>
       <c r="C83" s="7"/>
@@ -3287,7 +3262,7 @@
       <c r="O83" s="3"/>
       <c r="P83" s="3"/>
     </row>
-    <row r="84" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="7"/>
       <c r="B84" s="8"/>
       <c r="C84" s="7"/>
@@ -3305,7 +3280,7 @@
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
     </row>
-    <row r="85" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="7"/>
       <c r="B85" s="8"/>
       <c r="C85" s="7"/>
@@ -3323,7 +3298,7 @@
       <c r="O85" s="3"/>
       <c r="P85" s="3"/>
     </row>
-    <row r="86" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="7"/>
       <c r="B86" s="8"/>
       <c r="C86" s="7"/>
@@ -3341,7 +3316,7 @@
       <c r="O86" s="3"/>
       <c r="P86" s="3"/>
     </row>
-    <row r="87" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="7"/>
       <c r="B87" s="8"/>
       <c r="C87" s="7"/>
@@ -3359,7 +3334,7 @@
       <c r="O87" s="3"/>
       <c r="P87" s="3"/>
     </row>
-    <row r="88" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="7"/>
       <c r="B88" s="8"/>
       <c r="C88" s="7"/>
@@ -3377,7 +3352,7 @@
       <c r="O88" s="3"/>
       <c r="P88" s="3"/>
     </row>
-    <row r="89" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="7"/>
       <c r="B89" s="8"/>
       <c r="C89" s="7"/>
@@ -3395,7 +3370,7 @@
       <c r="O89" s="3"/>
       <c r="P89" s="3"/>
     </row>
-    <row r="90" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="7"/>
       <c r="B90" s="8"/>
       <c r="C90" s="7"/>
@@ -3413,7 +3388,7 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
     </row>
-    <row r="91" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="7"/>
       <c r="B91" s="8"/>
       <c r="C91" s="7"/>
@@ -3431,7 +3406,7 @@
       <c r="O91" s="3"/>
       <c r="P91" s="3"/>
     </row>
-    <row r="92" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="7"/>
       <c r="B92" s="8"/>
       <c r="C92" s="7"/>
@@ -3449,7 +3424,7 @@
       <c r="O92" s="3"/>
       <c r="P92" s="3"/>
     </row>
-    <row r="93" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="7"/>
       <c r="B93" s="8"/>
       <c r="C93" s="7"/>
@@ -3467,7 +3442,7 @@
       <c r="O93" s="3"/>
       <c r="P93" s="3"/>
     </row>
-    <row r="94" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="7"/>
       <c r="B94" s="8"/>
       <c r="C94" s="7"/>
@@ -3485,7 +3460,7 @@
       <c r="O94" s="3"/>
       <c r="P94" s="3"/>
     </row>
-    <row r="95" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="7"/>
       <c r="B95" s="8"/>
       <c r="C95" s="7"/>
@@ -3503,7 +3478,7 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
     </row>
-    <row r="96" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="7"/>
       <c r="B96" s="8"/>
       <c r="C96" s="7"/>
@@ -3521,7 +3496,7 @@
       <c r="O96" s="3"/>
       <c r="P96" s="3"/>
     </row>
-    <row r="97" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="7"/>
       <c r="B97" s="8"/>
       <c r="C97" s="7"/>
@@ -3539,7 +3514,7 @@
       <c r="O97" s="3"/>
       <c r="P97" s="3"/>
     </row>
-    <row r="98" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="7"/>
       <c r="B98" s="8"/>
       <c r="C98" s="7"/>
@@ -3557,7 +3532,7 @@
       <c r="O98" s="3"/>
       <c r="P98" s="3"/>
     </row>
-    <row r="99" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="7"/>
       <c r="B99" s="8"/>
       <c r="C99" s="7"/>
@@ -3575,7 +3550,7 @@
       <c r="O99" s="3"/>
       <c r="P99" s="3"/>
     </row>
-    <row r="100" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="7"/>
       <c r="B100" s="8"/>
       <c r="C100" s="7"/>
@@ -3593,7 +3568,7 @@
       <c r="O100" s="3"/>
       <c r="P100" s="3"/>
     </row>
-    <row r="101" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="7"/>
       <c r="B101" s="8"/>
       <c r="C101" s="7"/>
@@ -3611,7 +3586,7 @@
       <c r="O101" s="3"/>
       <c r="P101" s="3"/>
     </row>
-    <row r="102" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="7"/>
       <c r="B102" s="8"/>
       <c r="C102" s="7"/>
@@ -3629,7 +3604,7 @@
       <c r="O102" s="3"/>
       <c r="P102" s="3"/>
     </row>
-    <row r="103" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="7"/>
       <c r="B103" s="8"/>
       <c r="C103" s="7"/>
@@ -3647,7 +3622,7 @@
       <c r="O103" s="3"/>
       <c r="P103" s="3"/>
     </row>
-    <row r="104" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="7"/>
       <c r="B104" s="8"/>
       <c r="C104" s="7"/>
@@ -3665,7 +3640,7 @@
       <c r="O104" s="3"/>
       <c r="P104" s="3"/>
     </row>
-    <row r="105" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="7"/>
       <c r="B105" s="8"/>
       <c r="C105" s="7"/>
@@ -3683,7 +3658,7 @@
       <c r="O105" s="3"/>
       <c r="P105" s="3"/>
     </row>
-    <row r="106" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="7"/>
       <c r="B106" s="8"/>
       <c r="C106" s="7"/>
@@ -3701,7 +3676,7 @@
       <c r="O106" s="3"/>
       <c r="P106" s="3"/>
     </row>
-    <row r="107" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="7"/>
       <c r="B107" s="8"/>
       <c r="C107" s="7"/>
@@ -3719,7 +3694,7 @@
       <c r="O107" s="3"/>
       <c r="P107" s="3"/>
     </row>
-    <row r="108" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="7"/>
       <c r="B108" s="8"/>
       <c r="C108" s="7"/>
@@ -3737,7 +3712,7 @@
       <c r="O108" s="3"/>
       <c r="P108" s="3"/>
     </row>
-    <row r="109" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="7"/>
       <c r="B109" s="8"/>
       <c r="C109" s="7"/>
@@ -3755,7 +3730,7 @@
       <c r="O109" s="3"/>
       <c r="P109" s="3"/>
     </row>
-    <row r="110" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="7"/>
       <c r="B110" s="8"/>
       <c r="C110" s="7"/>
@@ -3773,7 +3748,7 @@
       <c r="O110" s="3"/>
       <c r="P110" s="3"/>
     </row>
-    <row r="111" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="7"/>
       <c r="B111" s="8"/>
       <c r="C111" s="7"/>
@@ -3791,7 +3766,7 @@
       <c r="O111" s="3"/>
       <c r="P111" s="3"/>
     </row>
-    <row r="112" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="7"/>
       <c r="B112" s="8"/>
       <c r="C112" s="7"/>
@@ -3809,7 +3784,7 @@
       <c r="O112" s="3"/>
       <c r="P112" s="3"/>
     </row>
-    <row r="113" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="7"/>
       <c r="B113" s="8"/>
       <c r="C113" s="7"/>
@@ -3827,7 +3802,7 @@
       <c r="O113" s="3"/>
       <c r="P113" s="3"/>
     </row>
-    <row r="114" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="7"/>
       <c r="B114" s="8"/>
       <c r="C114" s="7"/>
@@ -3845,7 +3820,7 @@
       <c r="O114" s="3"/>
       <c r="P114" s="3"/>
     </row>
-    <row r="115" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="7"/>
       <c r="B115" s="8"/>
       <c r="C115" s="7"/>
@@ -3863,7 +3838,7 @@
       <c r="O115" s="3"/>
       <c r="P115" s="3"/>
     </row>
-    <row r="116" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="7"/>
       <c r="B116" s="8"/>
       <c r="C116" s="7"/>
@@ -3881,7 +3856,7 @@
       <c r="O116" s="3"/>
       <c r="P116" s="3"/>
     </row>
-    <row r="117" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="7"/>
       <c r="B117" s="8"/>
       <c r="C117" s="7"/>
@@ -3899,7 +3874,7 @@
       <c r="O117" s="3"/>
       <c r="P117" s="3"/>
     </row>
-    <row r="118" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="7"/>
       <c r="B118" s="8"/>
       <c r="C118" s="7"/>
@@ -3917,7 +3892,7 @@
       <c r="O118" s="3"/>
       <c r="P118" s="3"/>
     </row>
-    <row r="119" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="7"/>
       <c r="B119" s="8"/>
       <c r="C119" s="7"/>
@@ -3935,7 +3910,7 @@
       <c r="O119" s="3"/>
       <c r="P119" s="3"/>
     </row>
-    <row r="120" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="7"/>
       <c r="B120" s="8"/>
       <c r="C120" s="7"/>
@@ -3953,7 +3928,7 @@
       <c r="O120" s="3"/>
       <c r="P120" s="3"/>
     </row>
-    <row r="121" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="7"/>
       <c r="B121" s="8"/>
       <c r="C121" s="7"/>
@@ -3971,7 +3946,7 @@
       <c r="O121" s="3"/>
       <c r="P121" s="3"/>
     </row>
-    <row r="122" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="7"/>
       <c r="B122" s="8"/>
       <c r="C122" s="7"/>
@@ -3989,7 +3964,7 @@
       <c r="O122" s="3"/>
       <c r="P122" s="3"/>
     </row>
-    <row r="123" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="7"/>
       <c r="B123" s="8"/>
       <c r="C123" s="7"/>
@@ -4007,7 +3982,7 @@
       <c r="O123" s="3"/>
       <c r="P123" s="3"/>
     </row>
-    <row r="124" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="7"/>
       <c r="B124" s="8"/>
       <c r="C124" s="7"/>
@@ -4025,7 +4000,7 @@
       <c r="O124" s="3"/>
       <c r="P124" s="3"/>
     </row>
-    <row r="125" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="7"/>
       <c r="B125" s="8"/>
       <c r="C125" s="7"/>
@@ -4043,7 +4018,7 @@
       <c r="O125" s="3"/>
       <c r="P125" s="3"/>
     </row>
-    <row r="126" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="7"/>
       <c r="B126" s="8"/>
       <c r="C126" s="7"/>
@@ -4061,7 +4036,7 @@
       <c r="O126" s="3"/>
       <c r="P126" s="3"/>
     </row>
-    <row r="127" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="7"/>
       <c r="B127" s="8"/>
       <c r="C127" s="7"/>
@@ -4079,7 +4054,7 @@
       <c r="O127" s="3"/>
       <c r="P127" s="3"/>
     </row>
-    <row r="128" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="7"/>
       <c r="B128" s="8"/>
       <c r="C128" s="7"/>
@@ -4097,7 +4072,7 @@
       <c r="O128" s="3"/>
       <c r="P128" s="3"/>
     </row>
-    <row r="129" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="7"/>
       <c r="B129" s="8"/>
       <c r="C129" s="7"/>
@@ -4115,7 +4090,7 @@
       <c r="O129" s="3"/>
       <c r="P129" s="3"/>
     </row>
-    <row r="130" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="7"/>
       <c r="B130" s="8"/>
       <c r="C130" s="7"/>
@@ -4133,7 +4108,7 @@
       <c r="O130" s="3"/>
       <c r="P130" s="3"/>
     </row>
-    <row r="131" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="7"/>
       <c r="B131" s="8"/>
       <c r="C131" s="7"/>
@@ -4151,7 +4126,7 @@
       <c r="O131" s="3"/>
       <c r="P131" s="3"/>
     </row>
-    <row r="132" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="7"/>
       <c r="B132" s="8"/>
       <c r="C132" s="7"/>
@@ -4169,7 +4144,7 @@
       <c r="O132" s="3"/>
       <c r="P132" s="3"/>
     </row>
-    <row r="133" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="7"/>
       <c r="B133" s="8"/>
       <c r="C133" s="7"/>
@@ -4187,7 +4162,7 @@
       <c r="O133" s="3"/>
       <c r="P133" s="3"/>
     </row>
-    <row r="134" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="7"/>
       <c r="B134" s="8"/>
       <c r="C134" s="7"/>
@@ -4205,7 +4180,7 @@
       <c r="O134" s="3"/>
       <c r="P134" s="3"/>
     </row>
-    <row r="135" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="7"/>
       <c r="B135" s="8"/>
       <c r="C135" s="7"/>
@@ -4223,7 +4198,7 @@
       <c r="O135" s="3"/>
       <c r="P135" s="3"/>
     </row>
-    <row r="136" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="7"/>
       <c r="B136" s="8"/>
       <c r="C136" s="7"/>
@@ -4241,7 +4216,7 @@
       <c r="O136" s="3"/>
       <c r="P136" s="3"/>
     </row>
-    <row r="137" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="7"/>
       <c r="B137" s="8"/>
       <c r="C137" s="7"/>
@@ -4259,7 +4234,7 @@
       <c r="O137" s="3"/>
       <c r="P137" s="3"/>
     </row>
-    <row r="138" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="7"/>
       <c r="B138" s="8"/>
       <c r="C138" s="7"/>
@@ -4277,7 +4252,7 @@
       <c r="O138" s="3"/>
       <c r="P138" s="3"/>
     </row>
-    <row r="139" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="7"/>
       <c r="B139" s="8"/>
       <c r="C139" s="7"/>
@@ -4295,7 +4270,7 @@
       <c r="O139" s="3"/>
       <c r="P139" s="3"/>
     </row>
-    <row r="140" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="7"/>
       <c r="B140" s="8"/>
       <c r="C140" s="7"/>
@@ -4313,7 +4288,7 @@
       <c r="O140" s="3"/>
       <c r="P140" s="3"/>
     </row>
-    <row r="141" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="7"/>
       <c r="B141" s="8"/>
       <c r="C141" s="7"/>
@@ -4331,7 +4306,7 @@
       <c r="O141" s="3"/>
       <c r="P141" s="3"/>
     </row>
-    <row r="142" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="7"/>
       <c r="B142" s="8"/>
       <c r="C142" s="7"/>
@@ -4349,7 +4324,7 @@
       <c r="O142" s="3"/>
       <c r="P142" s="3"/>
     </row>
-    <row r="143" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="7"/>
       <c r="B143" s="8"/>
       <c r="C143" s="7"/>
@@ -4367,7 +4342,7 @@
       <c r="O143" s="3"/>
       <c r="P143" s="3"/>
     </row>
-    <row r="144" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="7"/>
       <c r="B144" s="8"/>
       <c r="C144" s="7"/>
@@ -4385,7 +4360,7 @@
       <c r="O144" s="3"/>
       <c r="P144" s="3"/>
     </row>
-    <row r="145" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="7"/>
       <c r="B145" s="8"/>
       <c r="C145" s="7"/>
@@ -4403,7 +4378,7 @@
       <c r="O145" s="3"/>
       <c r="P145" s="3"/>
     </row>
-    <row r="146" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="7"/>
       <c r="B146" s="8"/>
       <c r="C146" s="7"/>
@@ -4421,7 +4396,7 @@
       <c r="O146" s="3"/>
       <c r="P146" s="3"/>
     </row>
-    <row r="147" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="7"/>
       <c r="B147" s="8"/>
       <c r="C147" s="7"/>
@@ -4439,7 +4414,7 @@
       <c r="O147" s="3"/>
       <c r="P147" s="3"/>
     </row>
-    <row r="148" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="7"/>
       <c r="B148" s="8"/>
       <c r="C148" s="7"/>
@@ -4457,7 +4432,7 @@
       <c r="O148" s="3"/>
       <c r="P148" s="3"/>
     </row>
-    <row r="149" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="7"/>
       <c r="B149" s="8"/>
       <c r="C149" s="7"/>
@@ -4475,7 +4450,7 @@
       <c r="O149" s="3"/>
       <c r="P149" s="3"/>
     </row>
-    <row r="150" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="7"/>
       <c r="B150" s="8"/>
       <c r="C150" s="7"/>
@@ -4493,7 +4468,7 @@
       <c r="O150" s="3"/>
       <c r="P150" s="3"/>
     </row>
-    <row r="151" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="7"/>
       <c r="B151" s="8"/>
       <c r="C151" s="7"/>
@@ -4511,7 +4486,7 @@
       <c r="O151" s="3"/>
       <c r="P151" s="3"/>
     </row>
-    <row r="152" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="7"/>
       <c r="B152" s="8"/>
       <c r="C152" s="7"/>
@@ -4529,7 +4504,7 @@
       <c r="O152" s="3"/>
       <c r="P152" s="3"/>
     </row>
-    <row r="153" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="7"/>
       <c r="B153" s="8"/>
       <c r="C153" s="7"/>
@@ -4547,7 +4522,7 @@
       <c r="O153" s="3"/>
       <c r="P153" s="3"/>
     </row>
-    <row r="154" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="7"/>
       <c r="B154" s="8"/>
       <c r="C154" s="7"/>
@@ -4565,7 +4540,7 @@
       <c r="O154" s="3"/>
       <c r="P154" s="3"/>
     </row>
-    <row r="155" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="7"/>
       <c r="B155" s="8"/>
       <c r="C155" s="7"/>
@@ -4583,7 +4558,7 @@
       <c r="O155" s="3"/>
       <c r="P155" s="3"/>
     </row>
-    <row r="156" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="7"/>
       <c r="B156" s="8"/>
       <c r="C156" s="7"/>
@@ -4601,7 +4576,7 @@
       <c r="O156" s="3"/>
       <c r="P156" s="3"/>
     </row>
-    <row r="157" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="7"/>
       <c r="B157" s="8"/>
       <c r="C157" s="7"/>
@@ -4619,7 +4594,7 @@
       <c r="O157" s="3"/>
       <c r="P157" s="3"/>
     </row>
-    <row r="158" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="7"/>
       <c r="B158" s="8"/>
       <c r="C158" s="7"/>
@@ -4637,7 +4612,7 @@
       <c r="O158" s="3"/>
       <c r="P158" s="3"/>
     </row>
-    <row r="159" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="7"/>
       <c r="B159" s="8"/>
       <c r="C159" s="7"/>
@@ -4655,7 +4630,7 @@
       <c r="O159" s="3"/>
       <c r="P159" s="3"/>
     </row>
-    <row r="160" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="7"/>
       <c r="B160" s="8"/>
       <c r="C160" s="7"/>
@@ -4673,7 +4648,7 @@
       <c r="O160" s="3"/>
       <c r="P160" s="3"/>
     </row>
-    <row r="161" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="7"/>
       <c r="B161" s="8"/>
       <c r="C161" s="7"/>
@@ -4691,7 +4666,7 @@
       <c r="O161" s="3"/>
       <c r="P161" s="3"/>
     </row>
-    <row r="162" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="7"/>
       <c r="B162" s="8"/>
       <c r="C162" s="7"/>
@@ -4709,7 +4684,7 @@
       <c r="O162" s="3"/>
       <c r="P162" s="3"/>
     </row>
-    <row r="163" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="7"/>
       <c r="B163" s="8"/>
       <c r="C163" s="7"/>
@@ -4727,7 +4702,7 @@
       <c r="O163" s="3"/>
       <c r="P163" s="3"/>
     </row>
-    <row r="164" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="7"/>
       <c r="B164" s="8"/>
       <c r="C164" s="7"/>
@@ -4745,7 +4720,7 @@
       <c r="O164" s="3"/>
       <c r="P164" s="3"/>
     </row>
-    <row r="165" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="7"/>
       <c r="B165" s="8"/>
       <c r="C165" s="7"/>
@@ -4763,7 +4738,7 @@
       <c r="O165" s="3"/>
       <c r="P165" s="3"/>
     </row>
-    <row r="166" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="7"/>
       <c r="B166" s="8"/>
       <c r="C166" s="7"/>
@@ -4781,7 +4756,7 @@
       <c r="O166" s="3"/>
       <c r="P166" s="3"/>
     </row>
-    <row r="167" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="7"/>
       <c r="B167" s="8"/>
       <c r="C167" s="7"/>
@@ -4799,7 +4774,7 @@
       <c r="O167" s="3"/>
       <c r="P167" s="3"/>
     </row>
-    <row r="168" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="7"/>
       <c r="B168" s="8"/>
       <c r="C168" s="7"/>
@@ -4817,7 +4792,7 @@
       <c r="O168" s="3"/>
       <c r="P168" s="3"/>
     </row>
-    <row r="169" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="7"/>
       <c r="B169" s="8"/>
       <c r="C169" s="7"/>
@@ -4835,7 +4810,7 @@
       <c r="O169" s="3"/>
       <c r="P169" s="3"/>
     </row>
-    <row r="170" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="7"/>
       <c r="B170" s="8"/>
       <c r="C170" s="7"/>
@@ -4853,7 +4828,7 @@
       <c r="O170" s="3"/>
       <c r="P170" s="3"/>
     </row>
-    <row r="171" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="7"/>
       <c r="B171" s="8"/>
       <c r="C171" s="7"/>
@@ -4871,7 +4846,7 @@
       <c r="O171" s="3"/>
       <c r="P171" s="3"/>
     </row>
-    <row r="172" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="7"/>
       <c r="B172" s="8"/>
       <c r="C172" s="7"/>
@@ -4889,7 +4864,7 @@
       <c r="O172" s="3"/>
       <c r="P172" s="3"/>
     </row>
-    <row r="173" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="7"/>
       <c r="B173" s="8"/>
       <c r="C173" s="7"/>
@@ -4907,7 +4882,7 @@
       <c r="O173" s="3"/>
       <c r="P173" s="3"/>
     </row>
-    <row r="174" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="7"/>
       <c r="B174" s="8"/>
       <c r="C174" s="7"/>
@@ -4925,7 +4900,7 @@
       <c r="O174" s="3"/>
       <c r="P174" s="3"/>
     </row>
-    <row r="175" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="7"/>
       <c r="B175" s="8"/>
       <c r="C175" s="7"/>
@@ -4943,7 +4918,7 @@
       <c r="O175" s="3"/>
       <c r="P175" s="3"/>
     </row>
-    <row r="176" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="7"/>
       <c r="B176" s="8"/>
       <c r="C176" s="7"/>
@@ -4961,7 +4936,7 @@
       <c r="O176" s="3"/>
       <c r="P176" s="3"/>
     </row>
-    <row r="177" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="7"/>
       <c r="B177" s="8"/>
       <c r="C177" s="7"/>
@@ -4979,7 +4954,7 @@
       <c r="O177" s="3"/>
       <c r="P177" s="3"/>
     </row>
-    <row r="178" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="7"/>
       <c r="B178" s="8"/>
       <c r="C178" s="7"/>
@@ -4997,7 +4972,7 @@
       <c r="O178" s="3"/>
       <c r="P178" s="3"/>
     </row>
-    <row r="179" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="7"/>
       <c r="B179" s="8"/>
       <c r="C179" s="7"/>
@@ -5015,7 +4990,7 @@
       <c r="O179" s="3"/>
       <c r="P179" s="3"/>
     </row>
-    <row r="180" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="7"/>
       <c r="B180" s="8"/>
       <c r="C180" s="7"/>
@@ -5033,7 +5008,7 @@
       <c r="O180" s="3"/>
       <c r="P180" s="3"/>
     </row>
-    <row r="181" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="7"/>
       <c r="B181" s="8"/>
       <c r="C181" s="7"/>
@@ -5051,7 +5026,7 @@
       <c r="O181" s="3"/>
       <c r="P181" s="3"/>
     </row>
-    <row r="182" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="7"/>
       <c r="B182" s="8"/>
       <c r="C182" s="7"/>
@@ -5069,7 +5044,7 @@
       <c r="O182" s="3"/>
       <c r="P182" s="3"/>
     </row>
-    <row r="183" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="7"/>
       <c r="B183" s="8"/>
       <c r="C183" s="7"/>
@@ -5087,7 +5062,7 @@
       <c r="O183" s="3"/>
       <c r="P183" s="3"/>
     </row>
-    <row r="184" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="7"/>
       <c r="B184" s="8"/>
       <c r="C184" s="7"/>
@@ -5105,7 +5080,7 @@
       <c r="O184" s="3"/>
       <c r="P184" s="3"/>
     </row>
-    <row r="185" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="7"/>
       <c r="B185" s="8"/>
       <c r="C185" s="7"/>
@@ -5123,7 +5098,7 @@
       <c r="O185" s="3"/>
       <c r="P185" s="3"/>
     </row>
-    <row r="186" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="7"/>
       <c r="B186" s="8"/>
       <c r="C186" s="7"/>
@@ -5141,7 +5116,7 @@
       <c r="O186" s="3"/>
       <c r="P186" s="3"/>
     </row>
-    <row r="187" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="7"/>
       <c r="B187" s="8"/>
       <c r="C187" s="7"/>
@@ -5159,7 +5134,7 @@
       <c r="O187" s="3"/>
       <c r="P187" s="3"/>
     </row>
-    <row r="188" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="7"/>
       <c r="B188" s="8"/>
       <c r="C188" s="7"/>
@@ -5177,7 +5152,7 @@
       <c r="O188" s="3"/>
       <c r="P188" s="3"/>
     </row>
-    <row r="189" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="7"/>
       <c r="B189" s="8"/>
       <c r="C189" s="7"/>
@@ -5195,7 +5170,7 @@
       <c r="O189" s="3"/>
       <c r="P189" s="3"/>
     </row>
-    <row r="190" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="7"/>
       <c r="B190" s="8"/>
       <c r="C190" s="7"/>
@@ -5213,7 +5188,7 @@
       <c r="O190" s="3"/>
       <c r="P190" s="3"/>
     </row>
-    <row r="191" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="7"/>
       <c r="B191" s="8"/>
       <c r="C191" s="7"/>
@@ -5231,7 +5206,7 @@
       <c r="O191" s="3"/>
       <c r="P191" s="3"/>
     </row>
-    <row r="192" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="7"/>
       <c r="B192" s="8"/>
       <c r="C192" s="7"/>
@@ -5249,7 +5224,7 @@
       <c r="O192" s="3"/>
       <c r="P192" s="3"/>
     </row>
-    <row r="193" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="7"/>
       <c r="B193" s="8"/>
       <c r="C193" s="7"/>
@@ -5267,7 +5242,7 @@
       <c r="O193" s="3"/>
       <c r="P193" s="3"/>
     </row>
-    <row r="194" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="7"/>
       <c r="B194" s="8"/>
       <c r="C194" s="7"/>
@@ -5285,7 +5260,7 @@
       <c r="O194" s="3"/>
       <c r="P194" s="3"/>
     </row>
-    <row r="195" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="7"/>
       <c r="B195" s="8"/>
       <c r="C195" s="7"/>
@@ -5303,7 +5278,7 @@
       <c r="O195" s="3"/>
       <c r="P195" s="3"/>
     </row>
-    <row r="196" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="7"/>
       <c r="B196" s="8"/>
       <c r="C196" s="7"/>
@@ -5321,7 +5296,7 @@
       <c r="O196" s="3"/>
       <c r="P196" s="3"/>
     </row>
-    <row r="197" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="7"/>
       <c r="B197" s="8"/>
       <c r="C197" s="7"/>
@@ -5339,7 +5314,7 @@
       <c r="O197" s="3"/>
       <c r="P197" s="3"/>
     </row>
-    <row r="198" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="7"/>
       <c r="B198" s="8"/>
       <c r="C198" s="7"/>
@@ -5357,7 +5332,7 @@
       <c r="O198" s="3"/>
       <c r="P198" s="3"/>
     </row>
-    <row r="199" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="7"/>
       <c r="B199" s="8"/>
       <c r="C199" s="7"/>
@@ -5375,7 +5350,7 @@
       <c r="O199" s="3"/>
       <c r="P199" s="3"/>
     </row>
-    <row r="200" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="7"/>
       <c r="B200" s="8"/>
       <c r="C200" s="7"/>
@@ -5393,7 +5368,7 @@
       <c r="O200" s="3"/>
       <c r="P200" s="3"/>
     </row>
-    <row r="201" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="7"/>
       <c r="B201" s="8"/>
       <c r="C201" s="7"/>
@@ -5411,7 +5386,7 @@
       <c r="O201" s="3"/>
       <c r="P201" s="3"/>
     </row>
-    <row r="202" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="7"/>
       <c r="B202" s="8"/>
       <c r="C202" s="7"/>
@@ -5429,7 +5404,7 @@
       <c r="O202" s="3"/>
       <c r="P202" s="3"/>
     </row>
-    <row r="203" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="7"/>
       <c r="B203" s="8"/>
       <c r="C203" s="7"/>
@@ -5447,7 +5422,7 @@
       <c r="O203" s="3"/>
       <c r="P203" s="3"/>
     </row>
-    <row r="204" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="7"/>
       <c r="B204" s="8"/>
       <c r="C204" s="7"/>
@@ -5465,7 +5440,7 @@
       <c r="O204" s="3"/>
       <c r="P204" s="3"/>
     </row>
-    <row r="205" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="7"/>
       <c r="B205" s="8"/>
       <c r="C205" s="7"/>
@@ -5483,7 +5458,7 @@
       <c r="O205" s="3"/>
       <c r="P205" s="3"/>
     </row>
-    <row r="206" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="7"/>
       <c r="B206" s="8"/>
       <c r="C206" s="7"/>
@@ -5501,7 +5476,7 @@
       <c r="O206" s="3"/>
       <c r="P206" s="3"/>
     </row>
-    <row r="207" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="7"/>
       <c r="B207" s="8"/>
       <c r="C207" s="7"/>
@@ -5519,7 +5494,7 @@
       <c r="O207" s="3"/>
       <c r="P207" s="3"/>
     </row>
-    <row r="208" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="7"/>
       <c r="B208" s="8"/>
       <c r="C208" s="7"/>
@@ -5537,7 +5512,7 @@
       <c r="O208" s="3"/>
       <c r="P208" s="3"/>
     </row>
-    <row r="209" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="7"/>
       <c r="B209" s="8"/>
       <c r="C209" s="7"/>
@@ -5555,7 +5530,7 @@
       <c r="O209" s="3"/>
       <c r="P209" s="3"/>
     </row>
-    <row r="210" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="7"/>
       <c r="B210" s="8"/>
       <c r="C210" s="7"/>
@@ -5573,7 +5548,7 @@
       <c r="O210" s="3"/>
       <c r="P210" s="3"/>
     </row>
-    <row r="211" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="7"/>
       <c r="B211" s="8"/>
       <c r="C211" s="7"/>
@@ -5591,7 +5566,7 @@
       <c r="O211" s="3"/>
       <c r="P211" s="3"/>
     </row>
-    <row r="212" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="7"/>
       <c r="B212" s="8"/>
       <c r="C212" s="7"/>
@@ -5609,7 +5584,7 @@
       <c r="O212" s="3"/>
       <c r="P212" s="3"/>
     </row>
-    <row r="213" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="7"/>
       <c r="B213" s="8"/>
       <c r="C213" s="7"/>
@@ -5627,7 +5602,7 @@
       <c r="O213" s="3"/>
       <c r="P213" s="3"/>
     </row>
-    <row r="214" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="7"/>
       <c r="B214" s="8"/>
       <c r="C214" s="7"/>
@@ -5645,7 +5620,7 @@
       <c r="O214" s="3"/>
       <c r="P214" s="3"/>
     </row>
-    <row r="215" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="7"/>
       <c r="B215" s="8"/>
       <c r="C215" s="7"/>
@@ -5663,7 +5638,7 @@
       <c r="O215" s="3"/>
       <c r="P215" s="3"/>
     </row>
-    <row r="216" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="7"/>
       <c r="B216" s="8"/>
       <c r="C216" s="7"/>
@@ -5681,7 +5656,7 @@
       <c r="O216" s="3"/>
       <c r="P216" s="3"/>
     </row>
-    <row r="217" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="7"/>
       <c r="B217" s="8"/>
       <c r="C217" s="7"/>
@@ -5699,7 +5674,7 @@
       <c r="O217" s="3"/>
       <c r="P217" s="3"/>
     </row>
-    <row r="218" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="7"/>
       <c r="B218" s="8"/>
       <c r="C218" s="7"/>
@@ -5717,7 +5692,7 @@
       <c r="O218" s="3"/>
       <c r="P218" s="3"/>
     </row>
-    <row r="219" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="7"/>
       <c r="B219" s="8"/>
       <c r="C219" s="7"/>
@@ -5735,7 +5710,7 @@
       <c r="O219" s="3"/>
       <c r="P219" s="3"/>
     </row>
-    <row r="220" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="7"/>
       <c r="B220" s="8"/>
       <c r="C220" s="7"/>
@@ -5753,7 +5728,7 @@
       <c r="O220" s="3"/>
       <c r="P220" s="3"/>
     </row>
-    <row r="221" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="7"/>
       <c r="B221" s="8"/>
       <c r="C221" s="7"/>
@@ -5771,7 +5746,7 @@
       <c r="O221" s="3"/>
       <c r="P221" s="3"/>
     </row>
-    <row r="222" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="7"/>
       <c r="B222" s="8"/>
       <c r="C222" s="7"/>
@@ -5789,7 +5764,7 @@
       <c r="O222" s="3"/>
       <c r="P222" s="3"/>
     </row>
-    <row r="223" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="7"/>
       <c r="B223" s="8"/>
       <c r="C223" s="7"/>
@@ -5807,7 +5782,7 @@
       <c r="O223" s="3"/>
       <c r="P223" s="3"/>
     </row>
-    <row r="224" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="7"/>
       <c r="B224" s="8"/>
       <c r="C224" s="7"/>
@@ -5825,7 +5800,7 @@
       <c r="O224" s="3"/>
       <c r="P224" s="3"/>
     </row>
-    <row r="225" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="7"/>
       <c r="B225" s="8"/>
       <c r="C225" s="7"/>
@@ -5843,7 +5818,7 @@
       <c r="O225" s="3"/>
       <c r="P225" s="3"/>
     </row>
-    <row r="226" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="7"/>
       <c r="B226" s="8"/>
       <c r="C226" s="7"/>
@@ -5861,7 +5836,7 @@
       <c r="O226" s="3"/>
       <c r="P226" s="3"/>
     </row>
-    <row r="227" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="7"/>
       <c r="B227" s="8"/>
       <c r="C227" s="7"/>
@@ -5879,7 +5854,7 @@
       <c r="O227" s="3"/>
       <c r="P227" s="3"/>
     </row>
-    <row r="228" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="7"/>
       <c r="B228" s="8"/>
       <c r="C228" s="7"/>
@@ -5897,7 +5872,7 @@
       <c r="O228" s="3"/>
       <c r="P228" s="3"/>
     </row>
-    <row r="229" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="7"/>
       <c r="B229" s="8"/>
       <c r="C229" s="7"/>
@@ -5915,7 +5890,7 @@
       <c r="O229" s="3"/>
       <c r="P229" s="3"/>
     </row>
-    <row r="230" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="7"/>
       <c r="B230" s="8"/>
       <c r="C230" s="7"/>
@@ -5933,7 +5908,7 @@
       <c r="O230" s="3"/>
       <c r="P230" s="3"/>
     </row>
-    <row r="231" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="7"/>
       <c r="B231" s="8"/>
       <c r="C231" s="7"/>
@@ -5951,7 +5926,7 @@
       <c r="O231" s="3"/>
       <c r="P231" s="3"/>
     </row>
-    <row r="232" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="7"/>
       <c r="B232" s="8"/>
       <c r="C232" s="7"/>
@@ -5969,7 +5944,7 @@
       <c r="O232" s="3"/>
       <c r="P232" s="3"/>
     </row>
-    <row r="233" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="7"/>
       <c r="B233" s="8"/>
       <c r="C233" s="7"/>
@@ -5987,7 +5962,7 @@
       <c r="O233" s="3"/>
       <c r="P233" s="3"/>
     </row>
-    <row r="234" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="7"/>
       <c r="B234" s="8"/>
       <c r="C234" s="7"/>
@@ -6005,7 +5980,7 @@
       <c r="O234" s="3"/>
       <c r="P234" s="3"/>
     </row>
-    <row r="235" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="7"/>
       <c r="B235" s="8"/>
       <c r="C235" s="7"/>
@@ -6023,7 +5998,7 @@
       <c r="O235" s="3"/>
       <c r="P235" s="3"/>
     </row>
-    <row r="236" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="7"/>
       <c r="B236" s="8"/>
       <c r="C236" s="7"/>
@@ -6041,7 +6016,7 @@
       <c r="O236" s="3"/>
       <c r="P236" s="3"/>
     </row>
-    <row r="237" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="7"/>
       <c r="B237" s="8"/>
       <c r="C237" s="7"/>
@@ -6059,7 +6034,7 @@
       <c r="O237" s="3"/>
       <c r="P237" s="3"/>
     </row>
-    <row r="238" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="7"/>
       <c r="B238" s="8"/>
       <c r="C238" s="7"/>
@@ -6077,7 +6052,7 @@
       <c r="O238" s="3"/>
       <c r="P238" s="3"/>
     </row>
-    <row r="239" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="7"/>
       <c r="B239" s="8"/>
       <c r="C239" s="7"/>
@@ -6095,7 +6070,7 @@
       <c r="O239" s="3"/>
       <c r="P239" s="3"/>
     </row>
-    <row r="240" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="7"/>
       <c r="B240" s="8"/>
       <c r="C240" s="7"/>
@@ -6113,7 +6088,7 @@
       <c r="O240" s="3"/>
       <c r="P240" s="3"/>
     </row>
-    <row r="241" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="7"/>
       <c r="B241" s="8"/>
       <c r="C241" s="7"/>
@@ -6131,7 +6106,7 @@
       <c r="O241" s="3"/>
       <c r="P241" s="3"/>
     </row>
-    <row r="242" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="7"/>
       <c r="B242" s="8"/>
       <c r="C242" s="7"/>
@@ -6149,7 +6124,7 @@
       <c r="O242" s="3"/>
       <c r="P242" s="3"/>
     </row>
-    <row r="243" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="7"/>
       <c r="B243" s="8"/>
       <c r="C243" s="7"/>
@@ -6167,7 +6142,7 @@
       <c r="O243" s="3"/>
       <c r="P243" s="3"/>
     </row>
-    <row r="244" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="7"/>
       <c r="B244" s="8"/>
       <c r="C244" s="7"/>
@@ -6185,7 +6160,7 @@
       <c r="O244" s="3"/>
       <c r="P244" s="3"/>
     </row>
-    <row r="245" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="7"/>
       <c r="B245" s="8"/>
       <c r="C245" s="7"/>
@@ -6203,7 +6178,7 @@
       <c r="O245" s="3"/>
       <c r="P245" s="3"/>
     </row>
-    <row r="246" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A246" s="7"/>
       <c r="B246" s="8"/>
       <c r="C246" s="7"/>
@@ -6221,7 +6196,7 @@
       <c r="O246" s="3"/>
       <c r="P246" s="3"/>
     </row>
-    <row r="247" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="7"/>
       <c r="B247" s="8"/>
       <c r="C247" s="7"/>
@@ -6239,7 +6214,7 @@
       <c r="O247" s="3"/>
       <c r="P247" s="3"/>
     </row>
-    <row r="248" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="7"/>
       <c r="B248" s="8"/>
       <c r="C248" s="7"/>
@@ -6257,7 +6232,7 @@
       <c r="O248" s="3"/>
       <c r="P248" s="3"/>
     </row>
-    <row r="249" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A249" s="7"/>
       <c r="B249" s="8"/>
       <c r="C249" s="7"/>
@@ -6275,7 +6250,7 @@
       <c r="O249" s="3"/>
       <c r="P249" s="3"/>
     </row>
-    <row r="250" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A250" s="7"/>
       <c r="B250" s="8"/>
       <c r="C250" s="7"/>
@@ -6293,7 +6268,7 @@
       <c r="O250" s="3"/>
       <c r="P250" s="3"/>
     </row>
-    <row r="251" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A251" s="7"/>
       <c r="B251" s="8"/>
       <c r="C251" s="7"/>
@@ -6311,7 +6286,7 @@
       <c r="O251" s="3"/>
       <c r="P251" s="3"/>
     </row>
-    <row r="252" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A252" s="7"/>
       <c r="B252" s="8"/>
       <c r="C252" s="7"/>
@@ -6329,7 +6304,7 @@
       <c r="O252" s="3"/>
       <c r="P252" s="3"/>
     </row>
-    <row r="253" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A253" s="7"/>
       <c r="B253" s="8"/>
       <c r="C253" s="7"/>
@@ -6347,7 +6322,7 @@
       <c r="O253" s="3"/>
       <c r="P253" s="3"/>
     </row>
-    <row r="254" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A254" s="7"/>
       <c r="B254" s="8"/>
       <c r="C254" s="7"/>
@@ -6365,7 +6340,7 @@
       <c r="O254" s="3"/>
       <c r="P254" s="3"/>
     </row>
-    <row r="255" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A255" s="7"/>
       <c r="B255" s="8"/>
       <c r="C255" s="7"/>
@@ -6383,7 +6358,7 @@
       <c r="O255" s="3"/>
       <c r="P255" s="3"/>
     </row>
-    <row r="256" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A256" s="7"/>
       <c r="B256" s="8"/>
       <c r="C256" s="7"/>
@@ -6401,7 +6376,7 @@
       <c r="O256" s="3"/>
       <c r="P256" s="3"/>
     </row>
-    <row r="257" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A257" s="7"/>
       <c r="B257" s="8"/>
       <c r="C257" s="7"/>
@@ -6419,7 +6394,7 @@
       <c r="O257" s="3"/>
       <c r="P257" s="3"/>
     </row>
-    <row r="258" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A258" s="7"/>
       <c r="B258" s="8"/>
       <c r="C258" s="7"/>
@@ -6437,7 +6412,7 @@
       <c r="O258" s="3"/>
       <c r="P258" s="3"/>
     </row>
-    <row r="259" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A259" s="7"/>
       <c r="B259" s="8"/>
       <c r="C259" s="7"/>
@@ -6455,7 +6430,7 @@
       <c r="O259" s="3"/>
       <c r="P259" s="3"/>
     </row>
-    <row r="260" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A260" s="7"/>
       <c r="B260" s="8"/>
       <c r="C260" s="7"/>
@@ -6473,7 +6448,7 @@
       <c r="O260" s="3"/>
       <c r="P260" s="3"/>
     </row>
-    <row r="261" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A261" s="7"/>
       <c r="B261" s="8"/>
       <c r="C261" s="7"/>
@@ -6491,7 +6466,7 @@
       <c r="O261" s="3"/>
       <c r="P261" s="3"/>
     </row>
-    <row r="262" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A262" s="7"/>
       <c r="B262" s="8"/>
       <c r="C262" s="7"/>
@@ -6509,7 +6484,7 @@
       <c r="O262" s="3"/>
       <c r="P262" s="3"/>
     </row>
-    <row r="263" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A263" s="7"/>
       <c r="B263" s="8"/>
       <c r="C263" s="7"/>
@@ -6527,7 +6502,7 @@
       <c r="O263" s="3"/>
       <c r="P263" s="3"/>
     </row>
-    <row r="264" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A264" s="7"/>
       <c r="B264" s="8"/>
       <c r="C264" s="7"/>
@@ -6545,7 +6520,7 @@
       <c r="O264" s="3"/>
       <c r="P264" s="3"/>
     </row>
-    <row r="265" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A265" s="7"/>
       <c r="B265" s="8"/>
       <c r="C265" s="7"/>
@@ -6563,7 +6538,7 @@
       <c r="O265" s="3"/>
       <c r="P265" s="3"/>
     </row>
-    <row r="266" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A266" s="7"/>
       <c r="B266" s="8"/>
       <c r="C266" s="7"/>
@@ -6581,7 +6556,7 @@
       <c r="O266" s="3"/>
       <c r="P266" s="3"/>
     </row>
-    <row r="267" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A267" s="7"/>
       <c r="B267" s="8"/>
       <c r="C267" s="7"/>
@@ -6599,7 +6574,7 @@
       <c r="O267" s="3"/>
       <c r="P267" s="3"/>
     </row>
-    <row r="268" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A268" s="7"/>
       <c r="B268" s="8"/>
       <c r="C268" s="7"/>
@@ -6617,7 +6592,7 @@
       <c r="O268" s="3"/>
       <c r="P268" s="3"/>
     </row>
-    <row r="269" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A269" s="7"/>
       <c r="B269" s="8"/>
       <c r="C269" s="7"/>
@@ -6635,7 +6610,7 @@
       <c r="O269" s="3"/>
       <c r="P269" s="3"/>
     </row>
-    <row r="270" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A270" s="7"/>
       <c r="B270" s="8"/>
       <c r="C270" s="7"/>
@@ -6653,7 +6628,7 @@
       <c r="O270" s="3"/>
       <c r="P270" s="3"/>
     </row>
-    <row r="271" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A271" s="7"/>
       <c r="B271" s="8"/>
       <c r="C271" s="7"/>
@@ -6671,7 +6646,7 @@
       <c r="O271" s="3"/>
       <c r="P271" s="3"/>
     </row>
-    <row r="272" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A272" s="7"/>
       <c r="B272" s="8"/>
       <c r="C272" s="7"/>
@@ -6689,7 +6664,7 @@
       <c r="O272" s="3"/>
       <c r="P272" s="3"/>
     </row>
-    <row r="273" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A273" s="7"/>
       <c r="B273" s="8"/>
       <c r="C273" s="7"/>
@@ -6707,7 +6682,7 @@
       <c r="O273" s="3"/>
       <c r="P273" s="3"/>
     </row>
-    <row r="274" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A274" s="7"/>
       <c r="B274" s="8"/>
       <c r="C274" s="7"/>
@@ -6725,7 +6700,7 @@
       <c r="O274" s="3"/>
       <c r="P274" s="3"/>
     </row>
-    <row r="275" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A275" s="7"/>
       <c r="B275" s="8"/>
       <c r="C275" s="7"/>
@@ -6743,7 +6718,7 @@
       <c r="O275" s="3"/>
       <c r="P275" s="3"/>
     </row>
-    <row r="276" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A276" s="7"/>
       <c r="B276" s="8"/>
       <c r="C276" s="7"/>
@@ -6761,7 +6736,7 @@
       <c r="O276" s="3"/>
       <c r="P276" s="3"/>
     </row>
-    <row r="277" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A277" s="7"/>
       <c r="B277" s="8"/>
       <c r="C277" s="7"/>
@@ -6779,7 +6754,7 @@
       <c r="O277" s="3"/>
       <c r="P277" s="3"/>
     </row>
-    <row r="278" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A278" s="7"/>
       <c r="B278" s="8"/>
       <c r="C278" s="7"/>
@@ -6797,7 +6772,7 @@
       <c r="O278" s="3"/>
       <c r="P278" s="3"/>
     </row>
-    <row r="279" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A279" s="7"/>
       <c r="B279" s="8"/>
       <c r="C279" s="7"/>
@@ -6815,7 +6790,7 @@
       <c r="O279" s="3"/>
       <c r="P279" s="3"/>
     </row>
-    <row r="280" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A280" s="7"/>
       <c r="B280" s="8"/>
       <c r="C280" s="7"/>
@@ -6833,7 +6808,7 @@
       <c r="O280" s="3"/>
       <c r="P280" s="3"/>
     </row>
-    <row r="281" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A281" s="7"/>
       <c r="B281" s="8"/>
       <c r="C281" s="7"/>
@@ -6851,7 +6826,7 @@
       <c r="O281" s="3"/>
       <c r="P281" s="3"/>
     </row>
-    <row r="282" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A282" s="7"/>
       <c r="B282" s="8"/>
       <c r="C282" s="7"/>
@@ -6869,7 +6844,7 @@
       <c r="O282" s="3"/>
       <c r="P282" s="3"/>
     </row>
-    <row r="283" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A283" s="7"/>
       <c r="B283" s="8"/>
       <c r="C283" s="7"/>
@@ -6887,7 +6862,7 @@
       <c r="O283" s="3"/>
       <c r="P283" s="3"/>
     </row>
-    <row r="284" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A284" s="7"/>
       <c r="B284" s="8"/>
       <c r="C284" s="7"/>
@@ -6905,7 +6880,7 @@
       <c r="O284" s="3"/>
       <c r="P284" s="3"/>
     </row>
-    <row r="285" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A285" s="7"/>
       <c r="B285" s="8"/>
       <c r="C285" s="7"/>
@@ -6923,7 +6898,7 @@
       <c r="O285" s="3"/>
       <c r="P285" s="3"/>
     </row>
-    <row r="286" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A286" s="7"/>
       <c r="B286" s="8"/>
       <c r="C286" s="7"/>
@@ -6941,7 +6916,7 @@
       <c r="O286" s="3"/>
       <c r="P286" s="3"/>
     </row>
-    <row r="287" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A287" s="7"/>
       <c r="B287" s="8"/>
       <c r="C287" s="7"/>
@@ -6959,7 +6934,7 @@
       <c r="O287" s="3"/>
       <c r="P287" s="3"/>
     </row>
-    <row r="288" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A288" s="7"/>
       <c r="B288" s="8"/>
       <c r="C288" s="7"/>
@@ -6977,7 +6952,7 @@
       <c r="O288" s="3"/>
       <c r="P288" s="3"/>
     </row>
-    <row r="289" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A289" s="7"/>
       <c r="B289" s="8"/>
       <c r="C289" s="7"/>
@@ -6995,7 +6970,7 @@
       <c r="O289" s="3"/>
       <c r="P289" s="3"/>
     </row>
-    <row r="290" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A290" s="7"/>
       <c r="B290" s="8"/>
       <c r="C290" s="7"/>
@@ -7013,7 +6988,7 @@
       <c r="O290" s="3"/>
       <c r="P290" s="3"/>
     </row>
-    <row r="291" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A291" s="7"/>
       <c r="B291" s="8"/>
       <c r="C291" s="7"/>
@@ -7031,7 +7006,7 @@
       <c r="O291" s="3"/>
       <c r="P291" s="3"/>
     </row>
-    <row r="292" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A292" s="7"/>
       <c r="B292" s="8"/>
       <c r="C292" s="7"/>
@@ -7049,7 +7024,7 @@
       <c r="O292" s="3"/>
       <c r="P292" s="3"/>
     </row>
-    <row r="293" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A293" s="7"/>
       <c r="B293" s="8"/>
       <c r="C293" s="7"/>
@@ -7067,7 +7042,7 @@
       <c r="O293" s="3"/>
       <c r="P293" s="3"/>
     </row>
-    <row r="294" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A294" s="7"/>
       <c r="B294" s="8"/>
       <c r="C294" s="7"/>
@@ -7085,7 +7060,7 @@
       <c r="O294" s="3"/>
       <c r="P294" s="3"/>
     </row>
-    <row r="295" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A295" s="7"/>
       <c r="B295" s="8"/>
       <c r="C295" s="7"/>
@@ -7103,7 +7078,7 @@
       <c r="O295" s="3"/>
       <c r="P295" s="3"/>
     </row>
-    <row r="296" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A296" s="7"/>
       <c r="B296" s="8"/>
       <c r="C296" s="7"/>
@@ -7121,7 +7096,7 @@
       <c r="O296" s="3"/>
       <c r="P296" s="3"/>
     </row>
-    <row r="297" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A297" s="7"/>
       <c r="B297" s="8"/>
       <c r="C297" s="7"/>
@@ -7139,7 +7114,7 @@
       <c r="O297" s="3"/>
       <c r="P297" s="3"/>
     </row>
-    <row r="298" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A298" s="7"/>
       <c r="B298" s="8"/>
       <c r="C298" s="7"/>
@@ -7157,7 +7132,7 @@
       <c r="O298" s="3"/>
       <c r="P298" s="3"/>
     </row>
-    <row r="299" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A299" s="7"/>
       <c r="B299" s="8"/>
       <c r="C299" s="7"/>
@@ -7175,7 +7150,7 @@
       <c r="O299" s="3"/>
       <c r="P299" s="3"/>
     </row>
-    <row r="300" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A300" s="7"/>
       <c r="B300" s="8"/>
       <c r="C300" s="7"/>
@@ -7193,7 +7168,7 @@
       <c r="O300" s="3"/>
       <c r="P300" s="3"/>
     </row>
-    <row r="301" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A301" s="7"/>
       <c r="B301" s="8"/>
       <c r="C301" s="7"/>
@@ -7211,7 +7186,7 @@
       <c r="O301" s="3"/>
       <c r="P301" s="3"/>
     </row>
-    <row r="302" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A302" s="7"/>
       <c r="B302" s="8"/>
       <c r="C302" s="7"/>
